--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Final_Parameters/Alphalogic Techsys Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Final_Parameters/Alphalogic Techsys Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Balance Sheet of Alphalogic Techsys(in Rs. Cr.)</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -1527,13 +1530,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1594,10 +1597,13 @@
       <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>1.07</v>
@@ -1629,23 +1635,20 @@
       <c r="K2">
         <v>0.75</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.75</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.2</v>
-      </c>
-      <c r="N2">
-        <v>0.55</v>
       </c>
       <c r="O2">
         <v>0.55</v>
       </c>
       <c r="P2">
+        <v>0.55</v>
+      </c>
+      <c r="Q2">
         <v>17.57</v>
-      </c>
-      <c r="Q2">
-        <v>0.16</v>
       </c>
       <c r="R2">
         <v>0.16</v>
@@ -1656,10 +1659,13 @@
       <c r="T2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>1.05</v>
@@ -1691,23 +1697,20 @@
       <c r="K3">
         <v>0.55</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.55</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.14</v>
-      </c>
-      <c r="N3">
-        <v>0.41</v>
       </c>
       <c r="O3">
         <v>0.41</v>
       </c>
       <c r="P3">
+        <v>0.41</v>
+      </c>
+      <c r="Q3">
         <v>16.93</v>
-      </c>
-      <c r="Q3">
-        <v>0.12</v>
       </c>
       <c r="R3">
         <v>0.12</v>
@@ -1718,10 +1721,13 @@
       <c r="T3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0.9399999999999999</v>
@@ -1753,23 +1759,20 @@
       <c r="K4">
         <v>0.52</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.52</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.12</v>
-      </c>
-      <c r="N4">
-        <v>0.4</v>
       </c>
       <c r="O4">
         <v>0.4</v>
       </c>
       <c r="P4">
+        <v>0.4</v>
+      </c>
+      <c r="Q4">
         <v>11.29</v>
-      </c>
-      <c r="Q4">
-        <v>0.18</v>
       </c>
       <c r="R4">
         <v>0.18</v>
@@ -1780,10 +1783,13 @@
       <c r="T4">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1.15</v>
@@ -1815,23 +1821,20 @@
       <c r="K5">
         <v>0.85</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.85</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.21</v>
-      </c>
-      <c r="N5">
-        <v>0.64</v>
       </c>
       <c r="O5">
         <v>0.64</v>
       </c>
       <c r="P5">
+        <v>0.64</v>
+      </c>
+      <c r="Q5">
         <v>17.57</v>
-      </c>
-      <c r="Q5">
-        <v>0.18</v>
       </c>
       <c r="R5">
         <v>0.18</v>
@@ -1842,10 +1845,13 @@
       <c r="T5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>1.29</v>
@@ -1877,37 +1883,37 @@
       <c r="K6">
         <v>0.72</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.72</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.19</v>
-      </c>
-      <c r="N6">
-        <v>0.53</v>
       </c>
       <c r="O6">
         <v>0.53</v>
       </c>
       <c r="P6">
+        <v>0.53</v>
+      </c>
+      <c r="Q6">
         <v>17.57</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.16</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.15</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.16</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1.16</v>
@@ -1939,37 +1945,37 @@
       <c r="K7">
         <v>0.96</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.96</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.21</v>
-      </c>
-      <c r="N7">
-        <v>0.74</v>
       </c>
       <c r="O7">
         <v>0.74</v>
       </c>
       <c r="P7">
+        <v>0.74</v>
+      </c>
+      <c r="Q7">
         <v>23.43</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.16</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.15</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.16</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1.26</v>
@@ -2001,37 +2007,37 @@
       <c r="K8">
         <v>1.04</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.04</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.26</v>
-      </c>
-      <c r="N8">
-        <v>0.77</v>
       </c>
       <c r="O8">
         <v>0.77</v>
       </c>
       <c r="P8">
+        <v>0.77</v>
+      </c>
+      <c r="Q8">
         <v>17.57</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.22</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.21</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.22</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>1.51</v>
@@ -2063,23 +2069,20 @@
       <c r="K9">
         <v>1.07</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.07</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.28</v>
-      </c>
-      <c r="N9">
-        <v>0.8</v>
       </c>
       <c r="O9">
         <v>0.8</v>
       </c>
       <c r="P9">
+        <v>0.8</v>
+      </c>
+      <c r="Q9">
         <v>31.31</v>
-      </c>
-      <c r="Q9">
-        <v>0.13</v>
       </c>
       <c r="R9">
         <v>0.13</v>
@@ -2090,10 +2093,13 @@
       <c r="T9">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>1.97</v>
@@ -2125,23 +2131,20 @@
       <c r="K10">
         <v>1.07</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.07</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.26</v>
-      </c>
-      <c r="N10">
-        <v>0.8100000000000001</v>
       </c>
       <c r="O10">
         <v>0.8100000000000001</v>
       </c>
       <c r="P10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q10">
         <v>24.24</v>
-      </c>
-      <c r="Q10">
-        <v>0.17</v>
       </c>
       <c r="R10">
         <v>0.17</v>
@@ -2152,10 +2155,13 @@
       <c r="T10">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>3.17</v>
@@ -2187,31 +2193,31 @@
       <c r="K11">
         <v>1.03</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.03</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.25</v>
-      </c>
-      <c r="N11">
-        <v>0.78</v>
       </c>
       <c r="O11">
         <v>0.78</v>
       </c>
       <c r="P11">
+        <v>0.78</v>
+      </c>
+      <c r="Q11">
         <v>23.73</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.17</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.16</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.17</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.16</v>
       </c>
     </row>
@@ -2230,58 +2236,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:18">
